--- a/Comprehensive_Investment_Matrix.xlsx
+++ b/Comprehensive_Investment_Matrix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Investment Name</t>
   </si>
@@ -31,61 +31,49 @@
     <t>Cap Rate (%)</t>
   </si>
   <si>
-    <t>Liquidity</t>
-  </si>
-  <si>
-    <t>Min Investment</t>
-  </si>
-  <si>
-    <t>Fund Manager</t>
-  </si>
-  <si>
-    <t>Large Cap Equities</t>
-  </si>
-  <si>
-    <t>Government Bonds</t>
-  </si>
-  <si>
-    <t>Money Market Funds</t>
-  </si>
-  <si>
-    <t>Forex Managed Account</t>
-  </si>
-  <si>
-    <t>REIT - Commercial</t>
+    <t>Liquidity (1–10)</t>
+  </si>
+  <si>
+    <t>Volatility (1–10)</t>
+  </si>
+  <si>
+    <t>Fees (%)</t>
+  </si>
+  <si>
+    <t>Time Horizon (Short/Medium/Long)</t>
+  </si>
+  <si>
+    <t>Inflation Hedge (Yes/No)</t>
+  </si>
+  <si>
+    <t>Minimum Investment ($)</t>
+  </si>
+  <si>
+    <t>US Equity Fund</t>
+  </si>
+  <si>
+    <t>Global Bond ETF</t>
+  </si>
+  <si>
+    <t>Commercial Real Estate</t>
   </si>
   <si>
     <t>Gold ETF</t>
   </si>
   <si>
-    <t>Life Settlement Fund</t>
-  </si>
-  <si>
-    <t>Mezzanine Finance Fund</t>
+    <t>Life Settlements Fund</t>
   </si>
   <si>
     <t>Direct Lending Fund</t>
   </si>
   <si>
-    <t>Raw Land Development</t>
-  </si>
-  <si>
-    <t>Fund of Funds - Alt Blend</t>
-  </si>
-  <si>
-    <t>Infrastructure Fund</t>
+    <t>Infrastructure Trust</t>
   </si>
   <si>
     <t>Equities</t>
   </si>
   <si>
-    <t>Fixed Income</t>
-  </si>
-  <si>
-    <t>Cash and Equivalents</t>
-  </si>
-  <si>
-    <t>Currencies (Forex)</t>
+    <t>Bonds</t>
   </si>
   <si>
     <t>Real Estate</t>
@@ -97,64 +85,22 @@
     <t>Life Settlements</t>
   </si>
   <si>
-    <t>Mezzanine Financing</t>
-  </si>
-  <si>
     <t>Direct Lending</t>
   </si>
   <si>
-    <t>Raw Developable Land</t>
-  </si>
-  <si>
-    <t>Fund of Funds</t>
-  </si>
-  <si>
     <t>Infrastructure</t>
   </si>
   <si>
-    <t>High</t>
+    <t>Long</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Vanguard</t>
-  </si>
-  <si>
-    <t>BlackRock</t>
-  </si>
-  <si>
-    <t>Fidelity</t>
-  </si>
-  <si>
-    <t>OANDA</t>
-  </si>
-  <si>
-    <t>Prologis</t>
-  </si>
-  <si>
-    <t>SPDR</t>
-  </si>
-  <si>
-    <t>Abacus Life</t>
-  </si>
-  <si>
-    <t>Golub Capital</t>
-  </si>
-  <si>
-    <t>Ares Capital</t>
-  </si>
-  <si>
-    <t>Private Group</t>
-  </si>
-  <si>
-    <t>Partners Group</t>
-  </si>
-  <si>
-    <t>Macquarie</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -512,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,290 +489,244 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>8.5</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>4.2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
+      <c r="C4">
+        <v>7.8</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
+      <c r="E4">
+        <v>6.5</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1.5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>5.1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="F5">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0.4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3">
-        <v>1000</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>9.5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1.8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>75000</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5">
-        <v>5000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5.7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6">
-        <v>25000</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8">
+        <v>6.7</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>5.5</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1.2</v>
+      </c>
+      <c r="I8" t="s">
         <v>25</v>
       </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7">
-        <v>1000</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8">
-        <v>100000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9">
-        <v>50000</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="J8" t="s">
         <v>28</v>
       </c>
-      <c r="C10">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10">
-        <v>50000</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>7.5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11">
-        <v>100000</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12">
-        <v>25000</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <v>8.5</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13">
-        <v>50000</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
+      <c r="K8">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
